--- a/TemporalEnhancer/ids.xlsx
+++ b/TemporalEnhancer/ids.xlsx
@@ -1,17 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
+  <bookViews>
+    <workbookView activeTab="0"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId3"/>
+    <sheet name="Sheet1" r:id="rId3" sheetId="1" state="visible"/>
   </sheets>
-  <definedNames/>
   <calcPr/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="111">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="234">
   <si>
     <t>id</t>
   </si>
@@ -344,12 +346,381 @@
   </si>
   <si>
     <t>b6e08ed24c5444faabf9ec1a3d24a3cc</t>
+  </si>
+  <si>
+    <t>2005-02-18T00:00:00Z</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>2005-02-22T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1938-02-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1938-02-28T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2004-02-29T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2007-02-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2007-02-28T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1960-02-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1922-02-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1922-02-28T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1998-01-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1998-12-31T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2006-06-14T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2006-06-16T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2014-06-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2014-06-30T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1952-06-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1952-06-30T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1903-08-25T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1959-01-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1959-12-31T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2008-01-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2008-08-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2015-10-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2015-10-31T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2006-10-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2012-10-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2012-10-28T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2014-10-07T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2015-10-19T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2015-10-20T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1977-10-31T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1989-10-16T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1943-01-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1943-12-31T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1772-01-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2013-01-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2009-10-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2011-12-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1980-01-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1980-12-31T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1985-01-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1985-12-31T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2006-01-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2006-12-31T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1986-05-13T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1986-06-15T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2001-03-20T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2015-08-04T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2015-08-15T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2010-11-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2011-01-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1964-06-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1967-08-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2007-01-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2007-12-31T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2004-03-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2004-08-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2011-11-18T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2013-02-14T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2014-04-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2014-04-30T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1980-04-11T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2003-12-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2008-12-07T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2008-12-08T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1954-12-16T00:00:00Z</t>
+  </si>
+  <si>
+    <t>event</t>
+  </si>
+  <si>
+    <t>1964-12-23T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1991-12-19T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1984-12-10T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1984-12-14T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2016-01-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2016-12-31T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1972-12-07T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2002-12-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2002-12-31T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1990-12-03T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1998-12-11T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1955-12-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1956-12-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1960-10-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1960-12-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1992-12-07T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1992-12-28T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1988-01-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1989-01-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1995-01-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2014-01-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2010-01-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2010-12-31T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2005-01-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2005-12-31T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1995-01-17T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1905-01-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1905-12-31T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1961-01-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1961-12-31T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2004-01-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2004-12-31T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2013-12-31T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2009-01-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1980-07-05T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1980-07-16T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1926-07-19T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1902-07-08T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1987-07-11T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1987-07-15T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1999-08-17T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1987-06-04T00:00:00Z</t>
+  </si>
+  <si>
+    <t>1987-06-13T00:00:00Z</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>7</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac">
   <numFmts count="12">
     <numFmt numFmtId="164" formatCode="mmmm d, yyyy"/>
     <numFmt numFmtId="165" formatCode="mmmm d"/>
@@ -402,91 +773,92 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="19">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="165" xfId="0">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="166" xfId="0">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="167" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="167" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="2" fontId="3" numFmtId="167" xfId="0" applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1">
+    <xf applyAlignment="1" applyFill="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="2" fontId="3" numFmtId="167" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="168" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="169" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="169" xfId="0">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf applyAlignment="1" applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="170" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="170" xfId="0">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="168" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="168" xfId="0">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="171" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="171" xfId="0">
       <alignment/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="172" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="172" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="173" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="173" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="166" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="166" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="171" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="171" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="174" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="2" numFmtId="174" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="175" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf applyAlignment="1" applyFont="1" applyNumberFormat="1" borderId="0" fillId="0" fontId="1" numFmtId="175" xfId="0">
       <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
 </styleSheet>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<xdr:wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <dimension ref="A1:AA77"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="44.29"/>
-    <col customWidth="1" min="2" max="2" width="23.43"/>
-    <col customWidth="1" min="3" max="3" width="22.57"/>
-    <col customWidth="1" min="4" max="4" width="20.14"/>
-    <col customWidth="1" min="5" max="5" width="18.71"/>
-    <col customWidth="1" min="6" max="6" width="63.71"/>
+    <col min="1" max="1" customWidth="true" width="44.29" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="23.43" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="22.57" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="20.14" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="63.71" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -513,544 +885,876 @@
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="1"/>
+      <c r="B2" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C2" t="s">
+        <v>114</v>
+      </c>
       <c r="D2" s="2">
         <v>38401.0</v>
       </c>
-      <c r="E2" s="3">
-        <v>42788.0</v>
+      <c r="E2" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="F2" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C3" t="s">
+        <v>116</v>
+      </c>
       <c r="D3" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="4" t="s">
-        <v>8</v>
+      <c r="E3" s="4"/>
+      <c r="F3" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B4" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" t="s">
+        <v>117</v>
+      </c>
       <c r="D4" s="5">
         <v>37895.0</v>
       </c>
-      <c r="E4" s="6">
-        <v>38018.0</v>
+      <c r="E4" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="F4" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B5" t="s">
+        <v>118</v>
+      </c>
+      <c r="C5" t="s">
+        <v>119</v>
+      </c>
       <c r="D5" s="4">
         <v>39114.0</v>
       </c>
-      <c r="E5" s="4">
-        <v>39114.0</v>
+      <c r="E5" s="4"/>
+      <c r="F5" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="B6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C6" t="s">
+        <v>120</v>
+      </c>
       <c r="D6" s="7" t="s">
         <v>12</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>12</v>
+        <v>112</v>
+      </c>
+      <c r="F6" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B7" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" t="s">
+        <v>122</v>
+      </c>
       <c r="D7" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>14</v>
+      <c r="E7" s="7"/>
+      <c r="F7" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="B8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C8" t="s">
+        <v>124</v>
+      </c>
       <c r="D8" s="8">
         <v>35796.0</v>
       </c>
-      <c r="E8" s="4">
-        <v>36130.0</v>
+      <c r="E8" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
         <v>16</v>
       </c>
+      <c r="B9" t="s">
+        <v>125</v>
+      </c>
+      <c r="C9" t="s">
+        <v>126</v>
+      </c>
       <c r="D9" s="3">
         <v>38884.0</v>
       </c>
-      <c r="E9" s="10">
-        <v>38884.0</v>
+      <c r="E9" s="10"/>
+      <c r="F9" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="B10" t="s">
+        <v>127</v>
+      </c>
+      <c r="C10" t="s">
+        <v>128</v>
+      </c>
       <c r="D10" s="11">
         <v>41791.0</v>
       </c>
-      <c r="E10" s="11">
-        <v>41791.0</v>
+      <c r="E10" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B11"/>
+      <c r="C11"/>
       <c r="D11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>19</v>
+      <c r="E11" s="1"/>
+      <c r="F11" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
+      <c r="B12" t="s">
+        <v>129</v>
+      </c>
+      <c r="C12" t="s">
+        <v>130</v>
+      </c>
       <c r="D12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>21</v>
+      <c r="E12" s="11"/>
+      <c r="F12" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="B13" t="s">
+        <v>131</v>
+      </c>
+      <c r="C13" t="s">
+        <v>131</v>
+      </c>
       <c r="D13" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="E13" s="12" t="s">
-        <v>23</v>
+      <c r="E13" s="12"/>
+      <c r="F13" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
         <v>24</v>
       </c>
+      <c r="B14" t="s">
+        <v>132</v>
+      </c>
+      <c r="C14" t="s">
+        <v>133</v>
+      </c>
       <c r="D14" s="1">
         <v>1959.0</v>
       </c>
-      <c r="E14" s="1">
-        <v>1959.0</v>
+      <c r="E14" s="1"/>
+      <c r="F14" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
         <v>25</v>
       </c>
+      <c r="B15"/>
+      <c r="C15"/>
       <c r="D15" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>27</v>
-      </c>
+      <c r="E15" s="1"/>
       <c r="F15" s="1" t="s">
-        <v>28</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="9" t="s">
         <v>29</v>
       </c>
+      <c r="B16"/>
+      <c r="C16"/>
       <c r="D16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>30</v>
+      <c r="E16" s="1"/>
+      <c r="F16" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="9" t="s">
         <v>31</v>
       </c>
+      <c r="B17" t="s">
+        <v>134</v>
+      </c>
+      <c r="C17" t="s">
+        <v>135</v>
+      </c>
       <c r="D17" s="4">
         <v>39661.0</v>
       </c>
-      <c r="E17" s="4">
-        <v>39661.0</v>
+      <c r="E17" s="4"/>
+      <c r="F17" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="9" t="s">
         <v>32</v>
       </c>
+      <c r="B18"/>
+      <c r="C18"/>
       <c r="D18" s="1">
         <v>2008.0</v>
       </c>
-      <c r="E18" s="1">
-        <v>2010.0</v>
-      </c>
+      <c r="E18" s="1"/>
       <c r="F18" s="1" t="s">
-        <v>33</v>
+        <v>229</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="9" t="s">
         <v>34</v>
       </c>
+      <c r="B19" t="s">
+        <v>136</v>
+      </c>
+      <c r="C19" t="s">
+        <v>137</v>
+      </c>
       <c r="D19" s="4">
         <v>42278.0</v>
       </c>
-      <c r="E19" s="4">
-        <v>42278.0</v>
+      <c r="E19" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F19" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
         <v>35</v>
       </c>
+      <c r="B20" t="s">
+        <v>138</v>
+      </c>
+      <c r="C20" t="s">
+        <v>139</v>
+      </c>
       <c r="D20" s="4">
         <v>38991.0</v>
       </c>
-      <c r="E20" s="4">
-        <v>41183.0</v>
+      <c r="E20" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F20" t="s">
+        <v>231</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="9" t="s">
         <v>36</v>
       </c>
+      <c r="B21" t="s">
+        <v>140</v>
+      </c>
+      <c r="C21" t="s">
+        <v>141</v>
+      </c>
       <c r="D21" s="4">
         <v>41183.0</v>
       </c>
-      <c r="E21" s="4">
-        <v>41913.0</v>
+      <c r="E21" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F21" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="9" t="s">
         <v>37</v>
       </c>
+      <c r="B22" t="s">
+        <v>142</v>
+      </c>
+      <c r="C22" t="s">
+        <v>143</v>
+      </c>
       <c r="D22" s="10">
         <v>42296.0</v>
       </c>
-      <c r="E22" s="12">
-        <v>42302.0</v>
+      <c r="E22" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="9" t="s">
         <v>38</v>
       </c>
+      <c r="B23" t="s">
+        <v>144</v>
+      </c>
+      <c r="C23" t="s">
+        <v>145</v>
+      </c>
       <c r="D23" s="13">
         <v>28429.0</v>
       </c>
-      <c r="E23" s="13">
-        <v>32797.0</v>
+      <c r="E23" s="13"/>
+      <c r="F23" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="9" t="s">
         <v>39</v>
       </c>
+      <c r="B24"/>
+      <c r="C24"/>
       <c r="D24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>30</v>
+      <c r="E24" s="1"/>
+      <c r="F24" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="9" t="s">
         <v>40</v>
       </c>
+      <c r="B25" t="s">
+        <v>146</v>
+      </c>
+      <c r="C25" t="s">
+        <v>147</v>
+      </c>
       <c r="D25" s="1">
         <v>1943.0</v>
       </c>
-      <c r="E25" s="1">
-        <v>1943.0</v>
+      <c r="E25" s="1"/>
+      <c r="F25" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="9" t="s">
         <v>41</v>
       </c>
+      <c r="B26" t="s">
+        <v>148</v>
+      </c>
+      <c r="C26" t="s">
+        <v>149</v>
+      </c>
       <c r="D26" s="1">
         <v>2013.0</v>
       </c>
-      <c r="E26" s="1">
-        <v>2013.0</v>
+      <c r="E26" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F26" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="9" t="s">
         <v>42</v>
       </c>
+      <c r="B27" t="s">
+        <v>150</v>
+      </c>
+      <c r="C27" t="s">
+        <v>151</v>
+      </c>
       <c r="D27" s="1">
         <v>2009.0</v>
       </c>
-      <c r="E27" s="1">
-        <v>2010.0</v>
+      <c r="E27" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F27" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="9" t="s">
         <v>43</v>
       </c>
+      <c r="B28" t="s">
+        <v>152</v>
+      </c>
+      <c r="C28" t="s">
+        <v>153</v>
+      </c>
       <c r="D28" s="4">
         <v>29221.0</v>
       </c>
-      <c r="E28" s="4">
-        <v>29556.0</v>
+      <c r="E28" s="4"/>
+      <c r="F28" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="9" t="s">
         <v>44</v>
       </c>
+      <c r="B29" t="s">
+        <v>154</v>
+      </c>
+      <c r="C29" t="s">
+        <v>155</v>
+      </c>
       <c r="D29" s="4">
         <v>31048.0</v>
       </c>
-      <c r="E29" s="4">
-        <v>31382.0</v>
+      <c r="E29" s="4"/>
+      <c r="F29" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="9" t="s">
         <v>45</v>
       </c>
+      <c r="B30" t="s">
+        <v>156</v>
+      </c>
+      <c r="C30" t="s">
+        <v>157</v>
+      </c>
       <c r="D30" s="4">
         <v>38718.0</v>
       </c>
-      <c r="E30" s="4">
-        <v>39052.0</v>
+      <c r="E30" s="4"/>
+      <c r="F30" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="9" t="s">
         <v>46</v>
       </c>
+      <c r="B31" t="s">
+        <v>158</v>
+      </c>
+      <c r="C31" t="s">
+        <v>159</v>
+      </c>
       <c r="D31" s="14">
         <v>31545.0</v>
       </c>
-      <c r="E31" s="14">
-        <v>31578.0</v>
+      <c r="E31" s="14"/>
+      <c r="F31" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="9" t="s">
         <v>47</v>
       </c>
+      <c r="B32" t="s">
+        <v>160</v>
+      </c>
+      <c r="C32" t="s">
+        <v>160</v>
+      </c>
       <c r="D32" s="2">
         <v>36970.0</v>
       </c>
-      <c r="E32" s="2">
-        <v>36970.0</v>
+      <c r="E32" s="2"/>
+      <c r="F32" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="9" t="s">
         <v>48</v>
       </c>
+      <c r="B33" t="s">
+        <v>161</v>
+      </c>
+      <c r="C33" t="s">
+        <v>162</v>
+      </c>
       <c r="D33" s="14">
         <v>42220.0</v>
       </c>
-      <c r="E33" s="14">
-        <v>42231.0</v>
+      <c r="E33" s="14"/>
+      <c r="F33" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="9" t="s">
         <v>49</v>
       </c>
+      <c r="B34"/>
+      <c r="C34"/>
       <c r="D34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>50</v>
+        <v>229</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="9" t="s">
         <v>51</v>
       </c>
+      <c r="B35" t="s">
+        <v>163</v>
+      </c>
+      <c r="C35" t="s">
+        <v>164</v>
+      </c>
       <c r="D35" s="14">
         <v>40483.0</v>
       </c>
-      <c r="E35" s="4">
-        <v>40544.0</v>
+      <c r="E35" s="4" t="s">
+        <v>112</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>52</v>
+        <v>230</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="9" t="s">
         <v>53</v>
       </c>
+      <c r="B36" t="s">
+        <v>152</v>
+      </c>
+      <c r="C36" t="s">
+        <v>153</v>
+      </c>
       <c r="D36" s="15">
         <v>29221.0</v>
       </c>
-      <c r="E36" s="4">
-        <v>29556.0</v>
+      <c r="E36" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F36" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="9" t="s">
         <v>54</v>
       </c>
+      <c r="B37" t="s">
+        <v>165</v>
+      </c>
+      <c r="C37" t="s">
+        <v>166</v>
+      </c>
       <c r="D37" s="7" t="s">
         <v>55</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>56</v>
+        <v>112</v>
+      </c>
+      <c r="F37" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="9" t="s">
         <v>57</v>
       </c>
+      <c r="B38"/>
+      <c r="C38"/>
       <c r="D38" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E38" s="1" t="s">
-        <v>30</v>
+      <c r="E38" s="1"/>
+      <c r="F38" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="9" t="s">
         <v>58</v>
       </c>
+      <c r="B39" t="s">
+        <v>167</v>
+      </c>
+      <c r="C39" t="s">
+        <v>168</v>
+      </c>
       <c r="D39" s="4">
         <v>39083.0</v>
       </c>
-      <c r="E39" s="4">
-        <v>39417.0</v>
+      <c r="E39" s="4" t="s">
+        <v>112</v>
+      </c>
+      <c r="F39" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="9" t="s">
         <v>59</v>
       </c>
+      <c r="B40" t="s">
+        <v>169</v>
+      </c>
+      <c r="C40" t="s">
+        <v>170</v>
+      </c>
       <c r="D40" s="7">
         <v>38047.0</v>
       </c>
-      <c r="E40" s="11">
-        <v>38200.0</v>
+      <c r="E40" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F40" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="9" t="s">
         <v>60</v>
       </c>
+      <c r="B41" t="s">
+        <v>171</v>
+      </c>
+      <c r="C41" t="s">
+        <v>172</v>
+      </c>
       <c r="D41" s="13">
         <v>40865.0</v>
       </c>
-      <c r="E41" s="13">
-        <v>41319.0</v>
+      <c r="E41" s="13"/>
+      <c r="F41" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="9" t="s">
         <v>61</v>
       </c>
+      <c r="B42" t="s">
+        <v>173</v>
+      </c>
+      <c r="C42" t="s">
+        <v>174</v>
+      </c>
       <c r="D42" s="11">
         <v>41730.0</v>
       </c>
-      <c r="E42" s="11">
-        <v>41730.0</v>
+      <c r="E42" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="F42" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="9" t="s">
         <v>62</v>
       </c>
+      <c r="B43" t="s">
+        <v>175</v>
+      </c>
+      <c r="C43" t="s">
+        <v>175</v>
+      </c>
       <c r="D43" s="10">
         <v>29322.0</v>
       </c>
-      <c r="E43" s="10">
-        <v>29322.0</v>
+      <c r="E43" s="10"/>
+      <c r="F43" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="9" t="s">
         <v>63</v>
       </c>
+      <c r="B44" t="s">
+        <v>176</v>
+      </c>
+      <c r="C44" t="s">
+        <v>176</v>
+      </c>
       <c r="D44" s="4">
         <v>37956.0</v>
       </c>
-      <c r="E44" s="4">
-        <v>37956.0</v>
+      <c r="E44" s="4"/>
+      <c r="F44" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="9" t="s">
         <v>64</v>
       </c>
+      <c r="B45" t="s">
+        <v>177</v>
+      </c>
+      <c r="C45" t="s">
+        <v>178</v>
+      </c>
       <c r="D45" s="2">
         <v>39797.0</v>
       </c>
-      <c r="E45" s="2">
-        <v>39887.0</v>
+      <c r="E45" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="F45" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="9" t="s">
         <v>65</v>
       </c>
+      <c r="B46" t="s">
+        <v>179</v>
+      </c>
+      <c r="C46" t="s">
+        <v>179</v>
+      </c>
       <c r="D46" s="2" t="s">
         <v>66</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>66</v>
+        <v>180</v>
+      </c>
+      <c r="F46" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="9" t="s">
         <v>67</v>
       </c>
+      <c r="B47" t="s">
+        <v>181</v>
+      </c>
+      <c r="C47" t="s">
+        <v>182</v>
+      </c>
       <c r="D47" s="13" t="s">
         <v>68</v>
       </c>
-      <c r="E47" s="13">
-        <v>33591.0</v>
+      <c r="E47" s="13"/>
+      <c r="F47" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="9" t="s">
         <v>69</v>
       </c>
+      <c r="B48" t="s">
+        <v>183</v>
+      </c>
+      <c r="C48" t="s">
+        <v>184</v>
+      </c>
       <c r="D48" s="16">
         <v>31026.0</v>
       </c>
-      <c r="E48" s="12">
-        <v>31030.0</v>
+      <c r="E48" s="12" t="s">
+        <v>112</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>70</v>
+        <v>226</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="9" t="s">
         <v>71</v>
       </c>
+      <c r="B49" t="s">
+        <v>185</v>
+      </c>
+      <c r="C49" t="s">
+        <v>186</v>
+      </c>
       <c r="D49" s="12">
         <v>31047.0</v>
       </c>
-      <c r="E49" s="12">
-        <v>31047.0</v>
+      <c r="E49" s="12"/>
+      <c r="F49" t="s">
+        <v>228</v>
       </c>
       <c r="Z49" s="1"/>
     </row>
@@ -1058,317 +1762,502 @@
       <c r="A50" s="9" t="s">
         <v>72</v>
       </c>
+      <c r="B50" t="s">
+        <v>187</v>
+      </c>
+      <c r="C50" t="s">
+        <v>187</v>
+      </c>
       <c r="D50" s="13">
         <v>26640.0</v>
       </c>
-      <c r="E50" s="13">
-        <v>26640.0</v>
+      <c r="E50" s="13"/>
+      <c r="F50" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="9" t="s">
         <v>73</v>
       </c>
+      <c r="B51" t="s">
+        <v>188</v>
+      </c>
+      <c r="C51" t="s">
+        <v>189</v>
+      </c>
       <c r="D51" s="4">
         <v>37591.0</v>
       </c>
-      <c r="E51" s="4">
-        <v>37591.0</v>
+      <c r="E51" s="4"/>
+      <c r="F51" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="9" t="s">
         <v>74</v>
       </c>
+      <c r="B52" t="s">
+        <v>190</v>
+      </c>
+      <c r="C52" t="s">
+        <v>191</v>
+      </c>
       <c r="D52" s="12">
         <v>33237.0</v>
       </c>
-      <c r="E52" s="12">
-        <v>36140.0</v>
+      <c r="E52" s="12"/>
+      <c r="F52" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="9" t="s">
         <v>75</v>
       </c>
+      <c r="B53" t="s">
+        <v>192</v>
+      </c>
+      <c r="C53" t="s">
+        <v>193</v>
+      </c>
       <c r="D53" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E53" s="5" t="s">
-        <v>77</v>
+      <c r="E53" s="5"/>
+      <c r="F53" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="9" t="s">
         <v>78</v>
       </c>
+      <c r="B54" t="s">
+        <v>194</v>
+      </c>
+      <c r="C54" t="s">
+        <v>195</v>
+      </c>
       <c r="D54" s="4" t="s">
         <v>79</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>80</v>
+        <v>112</v>
+      </c>
+      <c r="F54" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="9" t="s">
         <v>81</v>
       </c>
+      <c r="B55" t="s">
+        <v>196</v>
+      </c>
+      <c r="C55" t="s">
+        <v>197</v>
+      </c>
       <c r="D55" s="17">
         <v>33945.0</v>
       </c>
-      <c r="E55" s="13">
-        <v>33966.0</v>
+      <c r="E55" s="13"/>
+      <c r="F55" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="9" t="s">
         <v>82</v>
       </c>
+      <c r="B56" t="s">
+        <v>198</v>
+      </c>
+      <c r="C56" t="s">
+        <v>199</v>
+      </c>
       <c r="D56" s="1">
         <v>1988.0</v>
       </c>
-      <c r="E56" s="1">
-        <v>1989.0</v>
+      <c r="E56" s="1"/>
+      <c r="F56" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="9" t="s">
         <v>83</v>
       </c>
+      <c r="B57" t="s">
+        <v>200</v>
+      </c>
+      <c r="C57" t="s">
+        <v>201</v>
+      </c>
       <c r="D57" s="1">
         <v>1995.0</v>
       </c>
-      <c r="E57" s="1">
-        <v>2014.0</v>
+      <c r="E57" s="1"/>
+      <c r="F57" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="9" t="s">
         <v>84</v>
       </c>
+      <c r="B58" t="s">
+        <v>202</v>
+      </c>
+      <c r="C58" t="s">
+        <v>203</v>
+      </c>
       <c r="D58" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E58" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>87</v>
+        <v>228</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="9" t="s">
         <v>88</v>
       </c>
+      <c r="B59" t="s">
+        <v>204</v>
+      </c>
+      <c r="C59" t="s">
+        <v>205</v>
+      </c>
       <c r="D59" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>86</v>
-      </c>
+      <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>90</v>
+        <v>228</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="9" t="s">
         <v>91</v>
       </c>
+      <c r="B60" t="s">
+        <v>206</v>
+      </c>
+      <c r="C60" t="s">
+        <v>206</v>
+      </c>
       <c r="D60" s="2">
         <v>34716.0</v>
       </c>
-      <c r="E60" s="2">
-        <v>34716.0</v>
+      <c r="E60" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="F60" t="s">
+        <v>227</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="9" t="s">
         <v>92</v>
       </c>
+      <c r="B61"/>
+      <c r="C61"/>
       <c r="D61" s="1" t="s">
         <v>30</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>30</v>
+        <v>112</v>
+      </c>
+      <c r="F61" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="9" t="s">
         <v>93</v>
       </c>
+      <c r="B62" t="s">
+        <v>167</v>
+      </c>
+      <c r="C62" t="s">
+        <v>168</v>
+      </c>
       <c r="D62" s="1">
         <v>2007.0</v>
       </c>
-      <c r="E62" s="1">
-        <v>2007.0</v>
+      <c r="E62" s="1"/>
+      <c r="F62" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="9" t="s">
         <v>94</v>
       </c>
+      <c r="B63" t="s">
+        <v>207</v>
+      </c>
+      <c r="C63" t="s">
+        <v>208</v>
+      </c>
       <c r="D63" s="1">
         <v>1905.0</v>
       </c>
-      <c r="E63" s="1">
-        <v>1905.0</v>
+      <c r="E63" s="1"/>
+      <c r="F63" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="9" t="s">
         <v>95</v>
       </c>
+      <c r="B64"/>
+      <c r="C64"/>
       <c r="D64" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>30</v>
-      </c>
+      <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>96</v>
+        <v>229</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="9" t="s">
         <v>97</v>
       </c>
+      <c r="B65" t="s">
+        <v>209</v>
+      </c>
+      <c r="C65" t="s">
+        <v>210</v>
+      </c>
       <c r="D65" s="1">
         <v>1961.0</v>
       </c>
-      <c r="E65" s="1">
-        <v>1961.0</v>
+      <c r="E65" s="1"/>
+      <c r="F65" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="9" t="s">
         <v>98</v>
       </c>
+      <c r="B66"/>
+      <c r="C66"/>
       <c r="D66" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E66" s="1" t="s">
-        <v>30</v>
+      <c r="E66" s="1"/>
+      <c r="F66" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="9" t="s">
         <v>99</v>
       </c>
+      <c r="B67" t="s">
+        <v>211</v>
+      </c>
+      <c r="C67" t="s">
+        <v>212</v>
+      </c>
       <c r="D67" s="1">
         <v>2004.0</v>
       </c>
-      <c r="E67" s="1">
-        <v>2004.0</v>
+      <c r="E67" s="1"/>
+      <c r="F67" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="9" t="s">
         <v>73</v>
       </c>
+      <c r="B68" t="s">
+        <v>188</v>
+      </c>
+      <c r="C68" t="s">
+        <v>189</v>
+      </c>
       <c r="D68" s="4">
         <v>37591.0</v>
       </c>
-      <c r="E68" s="4">
-        <v>37591.0</v>
+      <c r="E68" s="4"/>
+      <c r="F68" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="9" t="s">
         <v>100</v>
       </c>
+      <c r="B69" t="s">
+        <v>149</v>
+      </c>
+      <c r="C69" t="s">
+        <v>213</v>
+      </c>
       <c r="D69" s="1">
         <v>2003.0</v>
       </c>
-      <c r="E69" s="1">
-        <v>2003.0</v>
+      <c r="E69" s="1"/>
+      <c r="F69" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="9" t="s">
         <v>101</v>
       </c>
+      <c r="B70" t="s">
+        <v>134</v>
+      </c>
+      <c r="C70" t="s">
+        <v>214</v>
+      </c>
       <c r="D70" s="1">
         <v>2008.0</v>
       </c>
-      <c r="E70" s="1">
-        <v>2009.0</v>
+      <c r="E70" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="F70" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="9" t="s">
         <v>102</v>
       </c>
+      <c r="B71" t="s">
+        <v>215</v>
+      </c>
+      <c r="C71" t="s">
+        <v>215</v>
+      </c>
       <c r="D71" s="2">
         <v>29407.0</v>
       </c>
-      <c r="E71" s="2">
-        <v>29407.0</v>
+      <c r="E71" s="2"/>
+      <c r="F71" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="9" t="s">
         <v>103</v>
       </c>
+      <c r="B72" t="s">
+        <v>216</v>
+      </c>
+      <c r="C72" t="s">
+        <v>216</v>
+      </c>
       <c r="D72" s="2">
         <v>29418.0</v>
       </c>
-      <c r="E72" s="2">
-        <v>29418.0</v>
+      <c r="E72" s="2"/>
+      <c r="F72" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="9" t="s">
         <v>104</v>
       </c>
+      <c r="B73" t="s">
+        <v>217</v>
+      </c>
+      <c r="C73" t="s">
+        <v>217</v>
+      </c>
       <c r="D73" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="E73" s="2" t="s">
-        <v>105</v>
+      <c r="E73" s="2"/>
+      <c r="F73" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="9" t="s">
         <v>106</v>
       </c>
+      <c r="B74" t="s">
+        <v>218</v>
+      </c>
+      <c r="C74" t="s">
+        <v>218</v>
+      </c>
       <c r="D74" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="E74" s="2" t="s">
-        <v>107</v>
+      <c r="E74" s="2"/>
+      <c r="F74" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="9" t="s">
         <v>108</v>
       </c>
+      <c r="B75" t="s">
+        <v>219</v>
+      </c>
+      <c r="C75" t="s">
+        <v>220</v>
+      </c>
       <c r="D75" s="13">
         <v>31969.0</v>
       </c>
-      <c r="E75" s="13">
-        <v>31973.0</v>
+      <c r="E75" s="13"/>
+      <c r="F75" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="9" t="s">
         <v>109</v>
       </c>
+      <c r="B76" t="s">
+        <v>221</v>
+      </c>
+      <c r="C76" t="s">
+        <v>221</v>
+      </c>
       <c r="D76" s="18">
         <v>36389.0</v>
       </c>
-      <c r="E76" s="18">
-        <v>36389.0</v>
+      <c r="E76" s="18"/>
+      <c r="F76" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="9" t="s">
         <v>110</v>
       </c>
+      <c r="B77" t="s">
+        <v>222</v>
+      </c>
+      <c r="C77" t="s">
+        <v>223</v>
+      </c>
       <c r="D77" s="10">
         <v>31932.0</v>
       </c>
-      <c r="E77" s="10">
-        <v>31941.0</v>
+      <c r="E77" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="F77" t="s">
+        <v>230</v>
       </c>
     </row>
   </sheetData>

--- a/TemporalEnhancer/ids.xlsx
+++ b/TemporalEnhancer/ids.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="903" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="227">
   <si>
     <t>id</t>
   </si>
@@ -30,7 +30,10 @@
     <t>expected end</t>
   </si>
   <si>
-    <t>notes</t>
+    <t>type</t>
+  </si>
+  <si>
+    <t># of time refs</t>
   </si>
   <si>
     <t>f18e074b70b2410b91bbcddbb8a6a617</t>
@@ -99,9 +102,6 @@
     <t>1980s</t>
   </si>
   <si>
-    <t>time is just 1980s, do I need to implement a fix for this level of vagueness?</t>
-  </si>
-  <si>
     <t>129f6a333e144d2eaf91b455167010f8</t>
   </si>
   <si>
@@ -114,9 +114,6 @@
     <t>f5c5642100524fecb753e7b870046907</t>
   </si>
   <si>
-    <t>no space or period separating the years from other words</t>
-  </si>
-  <si>
     <t>73d872326eb046af88e76a40754d95f0</t>
   </si>
   <si>
@@ -165,15 +162,9 @@
     <t>c064c500be974d58b855a6ca8245558c</t>
   </si>
   <si>
-    <t>weird newline tags that could mess up the regex</t>
-  </si>
-  <si>
     <t>e7a9817e3c6c4bf4aba41181e1ec12e9</t>
   </si>
   <si>
-    <t>lots of month references throughout that are not actually dates</t>
-  </si>
-  <si>
     <t>99f2f29137204f4dab03ac8bb1600c93</t>
   </si>
   <si>
@@ -225,9 +216,6 @@
     <t>efbdefa64db04592aee1dd0b67d2e6de</t>
   </si>
   <si>
-    <t>probalby not going to get this one correct</t>
-  </si>
-  <si>
     <t>0e5a79b6c3a346e8a4930134e61197a4</t>
   </si>
   <si>
@@ -276,18 +264,12 @@
     <t>?</t>
   </si>
   <si>
-    <t>very vague</t>
-  </si>
-  <si>
     <t>584d4da709064383a8f3185cd9dfe18e</t>
   </si>
   <si>
     <t>2005?</t>
   </si>
   <si>
-    <t>vague</t>
-  </si>
-  <si>
     <t>325d406000bf46a0a420ab203c277d34</t>
   </si>
   <si>
@@ -303,9 +285,6 @@
     <t>12720bf2083742fb98b5ef586f4edb9b</t>
   </si>
   <si>
-    <t>contains numbers that look like years</t>
-  </si>
-  <si>
     <t>87d7b496b0144f7fa8dc8e43f6fd70ec</t>
   </si>
   <si>
@@ -351,10 +330,13 @@
     <t>2005-02-18T00:00:00Z</t>
   </si>
   <si>
+    <t/>
+  </si>
+  <si>
     <t>range</t>
   </si>
   <si>
-    <t/>
+    <t>6</t>
   </si>
   <si>
     <t>2005-02-22T00:00:00Z</t>
@@ -363,12 +345,18 @@
     <t>1938-02-01T00:00:00Z</t>
   </si>
   <si>
+    <t>2</t>
+  </si>
+  <si>
     <t>1938-02-28T00:00:00Z</t>
   </si>
   <si>
     <t>2004-02-29T00:00:00Z</t>
   </si>
   <si>
+    <t>5</t>
+  </si>
+  <si>
     <t>2007-02-01T00:00:00Z</t>
   </si>
   <si>
@@ -378,6 +366,9 @@
     <t>1960-02-01T00:00:00Z</t>
   </si>
   <si>
+    <t>3</t>
+  </si>
+  <si>
     <t>1922-02-01T00:00:00Z</t>
   </si>
   <si>
@@ -387,6 +378,9 @@
     <t>1998-01-01T00:00:00Z</t>
   </si>
   <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>1998-12-31T00:00:00Z</t>
   </si>
   <si>
@@ -417,9 +411,15 @@
     <t>1959-12-31T00:00:00Z</t>
   </si>
   <si>
+    <t>0</t>
+  </si>
+  <si>
     <t>2008-01-01T00:00:00Z</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>2008-08-01T00:00:00Z</t>
   </si>
   <si>
@@ -432,18 +432,27 @@
     <t>2006-10-01T00:00:00Z</t>
   </si>
   <si>
+    <t>11</t>
+  </si>
+  <si>
     <t>2012-10-01T00:00:00Z</t>
   </si>
   <si>
     <t>2012-10-28T00:00:00Z</t>
   </si>
   <si>
+    <t>13</t>
+  </si>
+  <si>
     <t>2014-10-07T00:00:00Z</t>
   </si>
   <si>
     <t>2015-10-19T00:00:00Z</t>
   </si>
   <si>
+    <t>7</t>
+  </si>
+  <si>
     <t>2015-10-20T00:00:00Z</t>
   </si>
   <si>
@@ -685,36 +694,6 @@
   </si>
   <si>
     <t>1987-06-13T00:00:00Z</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>0</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>7</t>
   </si>
 </sst>
 </file>
@@ -858,7 +837,7 @@
     <col min="3" max="3" customWidth="true" width="22.57" collapsed="true"/>
     <col min="4" max="4" customWidth="true" width="20.14" collapsed="true"/>
     <col min="5" max="5" customWidth="true" width="18.71" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" width="63.71" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" width="14.57" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -880,259 +859,308 @@
       <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
       <c r="C2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="D2" s="2">
         <v>38401.0</v>
       </c>
-      <c r="E2" s="3" t="s">
-        <v>112</v>
+      <c r="E2" s="3">
+        <v>42788.0</v>
       </c>
       <c r="F2" t="s">
-        <v>224</v>
+        <v>106</v>
+      </c>
+      <c r="G2" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B3" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E3" s="4"/>
+        <v>9</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="F3" t="s">
-        <v>225</v>
+        <v>106</v>
+      </c>
+      <c r="G3" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="C4" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="D4" s="5">
         <v>37895.0</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>112</v>
+      <c r="E4" s="6">
+        <v>38018.0</v>
       </c>
       <c r="F4" t="s">
-        <v>226</v>
+        <v>106</v>
+      </c>
+      <c r="G4" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C5" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D5" s="4">
         <v>39114.0</v>
       </c>
-      <c r="E5" s="4"/>
+      <c r="E5" s="4">
+        <v>39114.0</v>
+      </c>
       <c r="F5" t="s">
-        <v>225</v>
+        <v>106</v>
+      </c>
+      <c r="G5" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C6" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>112</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>227</v>
+        <v>106</v>
+      </c>
+      <c r="G6" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C7" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" t="s">
-        <v>225</v>
+        <v>15</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C8" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D8" s="8">
         <v>35796.0</v>
       </c>
-      <c r="E8" s="4" t="s">
-        <v>112</v>
+      <c r="E8" s="4">
+        <v>36130.0</v>
       </c>
       <c r="F8" t="s">
-        <v>228</v>
+        <v>106</v>
+      </c>
+      <c r="G8" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="9" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B9" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D9" s="3">
         <v>38884.0</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" t="s">
-        <v>224</v>
+      <c r="E9" s="10">
+        <v>38884.0</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C10" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D10" s="11">
         <v>41791.0</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>112</v>
+      <c r="E10" s="11">
+        <v>41791.0</v>
       </c>
       <c r="F10" t="s">
-        <v>225</v>
+        <v>106</v>
+      </c>
+      <c r="G10" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B11"/>
       <c r="C11"/>
       <c r="D11" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" s="1"/>
-      <c r="F11" t="s">
-        <v>227</v>
+        <v>20</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11"/>
+      <c r="G11" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" s="11"/>
-      <c r="F12" t="s">
-        <v>225</v>
+        <v>22</v>
+      </c>
+      <c r="E12" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="F12"/>
+      <c r="G12" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C13" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D13" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" t="s">
-        <v>225</v>
+        <v>24</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="F13"/>
+      <c r="G13" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C14" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D14" s="1">
         <v>1959.0</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" t="s">
-        <v>228</v>
+      <c r="E14" s="1">
+        <v>1959.0</v>
+      </c>
+      <c r="F14"/>
+      <c r="G14" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="9" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1" t="s">
-        <v>228</v>
+        <v>27</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="16">
@@ -1144,9 +1172,12 @@
       <c r="D16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="1"/>
-      <c r="F16" t="s">
-        <v>229</v>
+      <c r="E16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16"/>
+      <c r="G16" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="17">
@@ -1154,7 +1185,7 @@
         <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C17" t="s">
         <v>135</v>
@@ -1162,9 +1193,14 @@
       <c r="D17" s="4">
         <v>39661.0</v>
       </c>
-      <c r="E17" s="4"/>
+      <c r="E17" s="4">
+        <v>39661.0</v>
+      </c>
       <c r="F17" t="s">
-        <v>230</v>
+        <v>106</v>
+      </c>
+      <c r="G17" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="18">
@@ -1176,14 +1212,17 @@
       <c r="D18" s="1">
         <v>2008.0</v>
       </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1" t="s">
-        <v>229</v>
+      <c r="E18" s="1">
+        <v>2010.0</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
         <v>136</v>
@@ -1194,775 +1233,905 @@
       <c r="D19" s="4">
         <v>42278.0</v>
       </c>
-      <c r="E19" s="4" t="s">
-        <v>112</v>
+      <c r="E19" s="4">
+        <v>42278.0</v>
       </c>
       <c r="F19" t="s">
-        <v>225</v>
+        <v>106</v>
+      </c>
+      <c r="G19" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="9" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
         <v>138</v>
       </c>
       <c r="C20" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D20" s="4">
         <v>38991.0</v>
       </c>
-      <c r="E20" s="4" t="s">
-        <v>112</v>
+      <c r="E20" s="4">
+        <v>41183.0</v>
       </c>
       <c r="F20" t="s">
-        <v>231</v>
+        <v>106</v>
+      </c>
+      <c r="G20" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C21" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D21" s="4">
         <v>41183.0</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>112</v>
+      <c r="E21" s="4">
+        <v>41913.0</v>
       </c>
       <c r="F21" t="s">
-        <v>232</v>
+        <v>106</v>
+      </c>
+      <c r="G21" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="9" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C22" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D22" s="10">
         <v>42296.0</v>
       </c>
-      <c r="E22" s="12" t="s">
-        <v>112</v>
+      <c r="E22" s="12">
+        <v>42302.0</v>
       </c>
       <c r="F22" t="s">
-        <v>233</v>
+        <v>106</v>
+      </c>
+      <c r="G22" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C23" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D23" s="13">
         <v>28429.0</v>
       </c>
-      <c r="E23" s="13"/>
-      <c r="F23" t="s">
-        <v>230</v>
+      <c r="E23" s="13">
+        <v>32797.0</v>
+      </c>
+      <c r="F23"/>
+      <c r="G23" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B24"/>
       <c r="C24"/>
       <c r="D24" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" t="s">
-        <v>229</v>
+      <c r="E24" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F24"/>
+      <c r="G24" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C25" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D25" s="1">
         <v>1943.0</v>
       </c>
-      <c r="E25" s="1"/>
-      <c r="F25" t="s">
-        <v>228</v>
+      <c r="E25" s="1">
+        <v>1943.0</v>
+      </c>
+      <c r="F25"/>
+      <c r="G25" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="9" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C26" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="D26" s="1">
         <v>2013.0</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>112</v>
+      <c r="E26" s="1">
+        <v>2013.0</v>
       </c>
       <c r="F26" t="s">
-        <v>224</v>
+        <v>106</v>
+      </c>
+      <c r="G26" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="9" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C27" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="D27" s="1">
         <v>2009.0</v>
       </c>
-      <c r="E27" s="1" t="s">
-        <v>112</v>
+      <c r="E27" s="1">
+        <v>2010.0</v>
       </c>
       <c r="F27" t="s">
-        <v>233</v>
+        <v>106</v>
+      </c>
+      <c r="G27" t="s">
+        <v>145</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="9" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C28" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D28" s="4">
         <v>29221.0</v>
       </c>
-      <c r="E28" s="4"/>
-      <c r="F28" t="s">
-        <v>228</v>
+      <c r="E28" s="4">
+        <v>29556.0</v>
+      </c>
+      <c r="F28"/>
+      <c r="G28" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C29" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="D29" s="4">
         <v>31048.0</v>
       </c>
-      <c r="E29" s="4"/>
-      <c r="F29" t="s">
-        <v>225</v>
+      <c r="E29" s="4">
+        <v>31382.0</v>
+      </c>
+      <c r="F29"/>
+      <c r="G29" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="C30" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="D30" s="4">
         <v>38718.0</v>
       </c>
-      <c r="E30" s="4"/>
-      <c r="F30" t="s">
-        <v>228</v>
+      <c r="E30" s="4">
+        <v>39052.0</v>
+      </c>
+      <c r="F30"/>
+      <c r="G30" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C31" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D31" s="14">
         <v>31545.0</v>
       </c>
-      <c r="E31" s="14"/>
-      <c r="F31" t="s">
-        <v>225</v>
+      <c r="E31" s="14">
+        <v>31578.0</v>
+      </c>
+      <c r="F31"/>
+      <c r="G31" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C32" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="D32" s="2">
         <v>36970.0</v>
       </c>
-      <c r="E32" s="2"/>
+      <c r="E32" s="2">
+        <v>36970.0</v>
+      </c>
       <c r="F32" t="s">
-        <v>228</v>
+        <v>106</v>
+      </c>
+      <c r="G32" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="C33" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="D33" s="14">
         <v>42220.0</v>
       </c>
-      <c r="E33" s="14"/>
-      <c r="F33" t="s">
-        <v>225</v>
+      <c r="E33" s="14">
+        <v>42231.0</v>
+      </c>
+      <c r="F33"/>
+      <c r="G33" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B34"/>
       <c r="C34"/>
       <c r="D34" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="1" t="s">
-        <v>229</v>
+      <c r="E34" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F34" s="1"/>
+      <c r="G34" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="9" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="C35" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="D35" s="14">
         <v>40483.0</v>
       </c>
-      <c r="E35" s="4" t="s">
-        <v>112</v>
+      <c r="E35" s="4">
+        <v>40544.0</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>230</v>
+        <v>106</v>
+      </c>
+      <c r="G35" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="9" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="C36" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="D36" s="15">
         <v>29221.0</v>
       </c>
-      <c r="E36" s="4" t="s">
-        <v>112</v>
+      <c r="E36" s="4">
+        <v>29556.0</v>
       </c>
       <c r="F36" t="s">
-        <v>225</v>
+        <v>106</v>
+      </c>
+      <c r="G36" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="9" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="C37" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>112</v>
+        <v>53</v>
       </c>
       <c r="F37" t="s">
-        <v>227</v>
+        <v>106</v>
+      </c>
+      <c r="G37" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B38"/>
       <c r="C38"/>
       <c r="D38" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E38" s="1"/>
-      <c r="F38" t="s">
-        <v>229</v>
+      <c r="E38" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F38"/>
+      <c r="G38" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="9" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B39" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C39" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D39" s="4">
         <v>39083.0</v>
       </c>
-      <c r="E39" s="4" t="s">
-        <v>112</v>
+      <c r="E39" s="4">
+        <v>39417.0</v>
       </c>
       <c r="F39" t="s">
-        <v>225</v>
+        <v>106</v>
+      </c>
+      <c r="G39" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="9" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="C40" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="D40" s="7">
         <v>38047.0</v>
       </c>
-      <c r="E40" s="11" t="s">
-        <v>112</v>
+      <c r="E40" s="11">
+        <v>38200.0</v>
       </c>
       <c r="F40" t="s">
-        <v>225</v>
+        <v>106</v>
+      </c>
+      <c r="G40" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="9" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C41" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="D41" s="13">
         <v>40865.0</v>
       </c>
-      <c r="E41" s="13"/>
-      <c r="F41" t="s">
-        <v>227</v>
+      <c r="E41" s="13">
+        <v>41319.0</v>
+      </c>
+      <c r="F41"/>
+      <c r="G41" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="9" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="C42" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="D42" s="11">
         <v>41730.0</v>
       </c>
-      <c r="E42" s="11" t="s">
-        <v>112</v>
+      <c r="E42" s="11">
+        <v>41730.0</v>
       </c>
       <c r="F42" t="s">
-        <v>225</v>
+        <v>106</v>
+      </c>
+      <c r="G42" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="9" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="C43" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="D43" s="10">
         <v>29322.0</v>
       </c>
-      <c r="E43" s="10"/>
-      <c r="F43" t="s">
-        <v>225</v>
+      <c r="E43" s="10">
+        <v>29322.0</v>
+      </c>
+      <c r="F43"/>
+      <c r="G43" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="B44" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="C44" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="D44" s="4">
         <v>37956.0</v>
       </c>
-      <c r="E44" s="4"/>
-      <c r="F44" t="s">
-        <v>226</v>
+      <c r="E44" s="4">
+        <v>37956.0</v>
+      </c>
+      <c r="F44"/>
+      <c r="G44" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="9" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B45" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="C45" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D45" s="2">
         <v>39797.0</v>
       </c>
-      <c r="E45" s="2" t="s">
-        <v>112</v>
+      <c r="E45" s="2">
+        <v>39887.0</v>
       </c>
       <c r="F45" t="s">
-        <v>232</v>
+        <v>106</v>
+      </c>
+      <c r="G45" t="s">
+        <v>142</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="9" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C46" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="E46" s="2" t="s">
-        <v>180</v>
+        <v>63</v>
       </c>
       <c r="F46" t="s">
-        <v>225</v>
+        <v>183</v>
+      </c>
+      <c r="G46" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="9" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B47" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C47" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="E47" s="13"/>
-      <c r="F47" t="s">
-        <v>230</v>
+        <v>65</v>
+      </c>
+      <c r="E47" s="13">
+        <v>33591.0</v>
+      </c>
+      <c r="F47"/>
+      <c r="G47" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="9" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B48" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C48" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="D48" s="16">
         <v>31026.0</v>
       </c>
-      <c r="E48" s="12" t="s">
-        <v>112</v>
+      <c r="E48" s="12">
+        <v>31030.0</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>226</v>
+        <v>106</v>
+      </c>
+      <c r="G48" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="9" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B49" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C49" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D49" s="12">
         <v>31047.0</v>
       </c>
-      <c r="E49" s="12"/>
-      <c r="F49" t="s">
-        <v>228</v>
+      <c r="E49" s="12">
+        <v>31047.0</v>
+      </c>
+      <c r="F49"/>
+      <c r="G49" t="s">
+        <v>121</v>
       </c>
       <c r="Z49" s="1"/>
     </row>
     <row r="50">
       <c r="A50" s="9" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B50" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C50" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="D50" s="13">
         <v>26640.0</v>
       </c>
-      <c r="E50" s="13"/>
+      <c r="E50" s="13">
+        <v>26640.0</v>
+      </c>
       <c r="F50" t="s">
-        <v>227</v>
+        <v>106</v>
+      </c>
+      <c r="G50" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B51" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C51" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D51" s="4">
         <v>37591.0</v>
       </c>
-      <c r="E51" s="4"/>
-      <c r="F51" t="s">
-        <v>225</v>
+      <c r="E51" s="4">
+        <v>37591.0</v>
+      </c>
+      <c r="F51"/>
+      <c r="G51" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="9" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B52" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C52" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="D52" s="12">
         <v>33237.0</v>
       </c>
-      <c r="E52" s="12"/>
-      <c r="F52" t="s">
-        <v>230</v>
+      <c r="E52" s="12">
+        <v>36140.0</v>
+      </c>
+      <c r="F52"/>
+      <c r="G52" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="9" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B53" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C53" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E53" s="5"/>
-      <c r="F53" t="s">
-        <v>225</v>
+        <v>72</v>
+      </c>
+      <c r="E53" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="F53"/>
+      <c r="G53" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="9" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B54" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="C54" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E54" s="4" t="s">
-        <v>112</v>
+        <v>76</v>
       </c>
       <c r="F54" t="s">
-        <v>230</v>
+        <v>106</v>
+      </c>
+      <c r="G54" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" s="9" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B55" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="C55" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="D55" s="17">
         <v>33945.0</v>
       </c>
-      <c r="E55" s="13"/>
-      <c r="F55" t="s">
-        <v>226</v>
+      <c r="E55" s="13">
+        <v>33966.0</v>
+      </c>
+      <c r="F55"/>
+      <c r="G55" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="9" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B56" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="C56" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="D56" s="1">
         <v>1988.0</v>
       </c>
-      <c r="E56" s="1"/>
-      <c r="F56" t="s">
-        <v>227</v>
+      <c r="E56" s="1">
+        <v>1989.0</v>
+      </c>
+      <c r="F56"/>
+      <c r="G56" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="9" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B57" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="C57" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="D57" s="1">
         <v>1995.0</v>
       </c>
-      <c r="E57" s="1"/>
-      <c r="F57" t="s">
-        <v>225</v>
+      <c r="E57" s="1">
+        <v>2014.0</v>
+      </c>
+      <c r="F57"/>
+      <c r="G57" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="9" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B58" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="C58" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="E58" s="1"/>
-      <c r="F58" s="1" t="s">
-        <v>228</v>
+        <v>81</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F58" s="1"/>
+      <c r="G58" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B59" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="C59" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E59" s="1"/>
-      <c r="F59" s="1" t="s">
-        <v>228</v>
+        <v>84</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="F59" s="1"/>
+      <c r="G59" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B60" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="C60" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="D60" s="2">
         <v>34716.0</v>
       </c>
-      <c r="E60" s="2" t="s">
-        <v>180</v>
+      <c r="E60" s="2">
+        <v>34716.0</v>
       </c>
       <c r="F60" t="s">
-        <v>227</v>
+        <v>183</v>
+      </c>
+      <c r="G60" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B61"/>
       <c r="C61"/>
@@ -1970,294 +2139,347 @@
         <v>30</v>
       </c>
       <c r="E61" s="1" t="s">
-        <v>112</v>
+        <v>30</v>
       </c>
       <c r="F61" t="s">
-        <v>229</v>
+        <v>106</v>
+      </c>
+      <c r="G61" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B62" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C62" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="D62" s="1">
         <v>2007.0</v>
       </c>
-      <c r="E62" s="1"/>
-      <c r="F62" t="s">
-        <v>228</v>
+      <c r="E62" s="1">
+        <v>2007.0</v>
+      </c>
+      <c r="F62"/>
+      <c r="G62" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B63" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="C63" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="D63" s="1">
         <v>1905.0</v>
       </c>
-      <c r="E63" s="1"/>
-      <c r="F63" t="s">
-        <v>225</v>
+      <c r="E63" s="1">
+        <v>1905.0</v>
+      </c>
+      <c r="F63"/>
+      <c r="G63" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B64"/>
       <c r="C64"/>
       <c r="D64" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E64" s="1"/>
-      <c r="F64" s="1" t="s">
-        <v>229</v>
+      <c r="E64" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F64" s="1"/>
+      <c r="G64" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="9" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B65" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="C65" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="D65" s="1">
         <v>1961.0</v>
       </c>
-      <c r="E65" s="1"/>
-      <c r="F65" t="s">
-        <v>228</v>
+      <c r="E65" s="1">
+        <v>1961.0</v>
+      </c>
+      <c r="F65"/>
+      <c r="G65" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="9" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="B66"/>
       <c r="C66"/>
       <c r="D66" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E66" s="1"/>
-      <c r="F66" t="s">
-        <v>229</v>
+      <c r="E66" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F66"/>
+      <c r="G66" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="9" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="B67" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="C67" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="D67" s="1">
         <v>2004.0</v>
       </c>
-      <c r="E67" s="1"/>
+      <c r="E67" s="1">
+        <v>2004.0</v>
+      </c>
       <c r="F67" t="s">
-        <v>228</v>
+        <v>106</v>
+      </c>
+      <c r="G67" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" s="9" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B68" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="C68" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="D68" s="4">
         <v>37591.0</v>
       </c>
-      <c r="E68" s="4"/>
-      <c r="F68" t="s">
-        <v>225</v>
+      <c r="E68" s="4">
+        <v>37591.0</v>
+      </c>
+      <c r="F68"/>
+      <c r="G68" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="B69" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C69" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="D69" s="1">
         <v>2003.0</v>
       </c>
-      <c r="E69" s="1"/>
-      <c r="F69" t="s">
-        <v>225</v>
+      <c r="E69" s="1">
+        <v>2003.0</v>
+      </c>
+      <c r="F69"/>
+      <c r="G69" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B70" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C70" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="D70" s="1">
         <v>2008.0</v>
       </c>
-      <c r="E70" s="1" t="s">
-        <v>112</v>
+      <c r="E70" s="1">
+        <v>2009.0</v>
       </c>
       <c r="F70" t="s">
-        <v>226</v>
+        <v>106</v>
+      </c>
+      <c r="G70" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" s="9" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="B71" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="C71" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="D71" s="2">
         <v>29407.0</v>
       </c>
-      <c r="E71" s="2"/>
-      <c r="F71" t="s">
-        <v>225</v>
+      <c r="E71" s="2">
+        <v>29407.0</v>
+      </c>
+      <c r="F71"/>
+      <c r="G71" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="9" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="B72" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="C72" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D72" s="2">
         <v>29418.0</v>
       </c>
-      <c r="E72" s="2"/>
-      <c r="F72" t="s">
-        <v>225</v>
+      <c r="E72" s="2">
+        <v>29418.0</v>
+      </c>
+      <c r="F72"/>
+      <c r="G72" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" s="9" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="B73" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C73" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="E73" s="2"/>
-      <c r="F73" t="s">
-        <v>225</v>
+        <v>98</v>
+      </c>
+      <c r="E73" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="F73"/>
+      <c r="G73" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="9" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="B74" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="C74" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="E74" s="2"/>
-      <c r="F74" t="s">
-        <v>225</v>
+        <v>100</v>
+      </c>
+      <c r="E74" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="F74"/>
+      <c r="G74" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="9" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="B75" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="C75" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D75" s="13">
         <v>31969.0</v>
       </c>
-      <c r="E75" s="13"/>
-      <c r="F75" t="s">
-        <v>226</v>
+      <c r="E75" s="13">
+        <v>31973.0</v>
+      </c>
+      <c r="F75"/>
+      <c r="G75" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" s="9" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="B76" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="C76" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="D76" s="18">
         <v>36389.0</v>
       </c>
-      <c r="E76" s="18"/>
-      <c r="F76" t="s">
-        <v>226</v>
+      <c r="E76" s="18">
+        <v>36389.0</v>
+      </c>
+      <c r="F76"/>
+      <c r="G76" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" s="9" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="B77" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="C77" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="D77" s="10">
         <v>31932.0</v>
       </c>
-      <c r="E77" s="10" t="s">
-        <v>112</v>
+      <c r="E77" s="10">
+        <v>31941.0</v>
       </c>
       <c r="F77" t="s">
-        <v>230</v>
+        <v>106</v>
+      </c>
+      <c r="G77" t="s">
+        <v>134</v>
       </c>
     </row>
   </sheetData>

--- a/TemporalEnhancer/ids.xlsx
+++ b/TemporalEnhancer/ids.xlsx
@@ -441,6 +441,9 @@
     <t>2012-10-28T00:00:00Z</t>
   </si>
   <si>
+    <t>event</t>
+  </si>
+  <si>
     <t>13</t>
   </si>
   <si>
@@ -562,9 +565,6 @@
   </si>
   <si>
     <t>1954-12-16T00:00:00Z</t>
-  </si>
-  <si>
-    <t>event</t>
   </si>
   <si>
     <t>1964-12-23T00:00:00Z</t>
@@ -1274,7 +1274,7 @@
         <v>141</v>
       </c>
       <c r="C21" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D21" s="4">
         <v>41183.0</v>
@@ -1283,10 +1283,10 @@
         <v>41913.0</v>
       </c>
       <c r="F21" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="G21" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="22">
@@ -1294,10 +1294,10 @@
         <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C22" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D22" s="10">
         <v>42296.0</v>
@@ -1309,7 +1309,7 @@
         <v>106</v>
       </c>
       <c r="G22" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23">
@@ -1317,10 +1317,10 @@
         <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="C23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D23" s="13">
         <v>28429.0</v>
@@ -1355,10 +1355,10 @@
         <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="C25" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D25" s="1">
         <v>1943.0</v>
@@ -1376,10 +1376,10 @@
         <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="C26" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D26" s="1">
         <v>2013.0</v>
@@ -1399,10 +1399,10 @@
         <v>41</v>
       </c>
       <c r="B27" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="C27" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D27" s="1">
         <v>2009.0</v>
@@ -1414,7 +1414,7 @@
         <v>106</v>
       </c>
       <c r="G27" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28">
@@ -1422,10 +1422,10 @@
         <v>42</v>
       </c>
       <c r="B28" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C28" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D28" s="4">
         <v>29221.0</v>
@@ -1443,10 +1443,10 @@
         <v>43</v>
       </c>
       <c r="B29" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C29" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D29" s="4">
         <v>31048.0</v>
@@ -1464,10 +1464,10 @@
         <v>44</v>
       </c>
       <c r="B30" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C30" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="D30" s="4">
         <v>38718.0</v>
@@ -1485,10 +1485,10 @@
         <v>45</v>
       </c>
       <c r="B31" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="C31" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="D31" s="14">
         <v>31545.0</v>
@@ -1506,10 +1506,10 @@
         <v>46</v>
       </c>
       <c r="B32" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C32" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="D32" s="2">
         <v>36970.0</v>
@@ -1529,10 +1529,10 @@
         <v>47</v>
       </c>
       <c r="B33" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C33" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D33" s="14">
         <v>42220.0</v>
@@ -1567,10 +1567,10 @@
         <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C35" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="D35" s="14">
         <v>40483.0</v>
@@ -1590,10 +1590,10 @@
         <v>50</v>
       </c>
       <c r="B36" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C36" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D36" s="15">
         <v>29221.0</v>
@@ -1613,10 +1613,10 @@
         <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C37" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="D37" s="7" t="s">
         <v>52</v>
@@ -1653,10 +1653,10 @@
         <v>55</v>
       </c>
       <c r="B39" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C39" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D39" s="4">
         <v>39083.0</v>
@@ -1676,10 +1676,10 @@
         <v>56</v>
       </c>
       <c r="B40" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C40" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="D40" s="7">
         <v>38047.0</v>
@@ -1699,10 +1699,10 @@
         <v>57</v>
       </c>
       <c r="B41" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C41" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D41" s="13">
         <v>40865.0</v>
@@ -1720,10 +1720,10 @@
         <v>58</v>
       </c>
       <c r="B42" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C42" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="D42" s="11">
         <v>41730.0</v>
@@ -1743,10 +1743,10 @@
         <v>59</v>
       </c>
       <c r="B43" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C43" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="D43" s="10">
         <v>29322.0</v>
@@ -1764,10 +1764,10 @@
         <v>60</v>
       </c>
       <c r="B44" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C44" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D44" s="4">
         <v>37956.0</v>
@@ -1785,10 +1785,10 @@
         <v>61</v>
       </c>
       <c r="B45" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C45" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D45" s="2">
         <v>39797.0</v>
@@ -1800,7 +1800,7 @@
         <v>106</v>
       </c>
       <c r="G45" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="46">
@@ -1808,10 +1808,10 @@
         <v>62</v>
       </c>
       <c r="B46" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C46" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>63</v>
@@ -1820,7 +1820,7 @@
         <v>63</v>
       </c>
       <c r="F46" t="s">
-        <v>183</v>
+        <v>142</v>
       </c>
       <c r="G46" t="s">
         <v>110</v>
@@ -2123,7 +2123,7 @@
         <v>34716.0</v>
       </c>
       <c r="F60" t="s">
-        <v>183</v>
+        <v>142</v>
       </c>
       <c r="G60" t="s">
         <v>117</v>
@@ -2153,10 +2153,10 @@
         <v>87</v>
       </c>
       <c r="B62" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C62" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="D62" s="1">
         <v>2007.0</v>
@@ -2294,7 +2294,7 @@
         <v>93</v>
       </c>
       <c r="B69" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C69" t="s">
         <v>216</v>

--- a/TemporalEnhancer/ids.xlsx
+++ b/TemporalEnhancer/ids.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="662" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="660" uniqueCount="227">
   <si>
     <t>id</t>
   </si>
@@ -33,7 +33,7 @@
     <t>type</t>
   </si>
   <si>
-    <t># of time refs</t>
+    <t># of time references</t>
   </si>
   <si>
     <t>f18e074b70b2410b91bbcddbb8a6a617</t>
@@ -971,9 +971,7 @@
       <c r="E6" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F6" t="s">
-        <v>106</v>
-      </c>
+      <c r="F6"/>
       <c r="G6" t="s">
         <v>117</v>
       </c>
@@ -1259,9 +1257,7 @@
       <c r="E20" s="4">
         <v>41183.0</v>
       </c>
-      <c r="F20" t="s">
-        <v>106</v>
-      </c>
+      <c r="F20"/>
       <c r="G20" t="s">
         <v>139</v>
       </c>
@@ -1908,9 +1904,7 @@
       <c r="E50" s="13">
         <v>26640.0</v>
       </c>
-      <c r="F50" t="s">
-        <v>106</v>
-      </c>
+      <c r="F50"/>
       <c r="G50" t="s">
         <v>117</v>
       </c>
@@ -2454,7 +2448,9 @@
       <c r="E76" s="18">
         <v>36389.0</v>
       </c>
-      <c r="F76"/>
+      <c r="F76" t="s">
+        <v>142</v>
+      </c>
       <c r="G76" t="s">
         <v>113</v>
       </c>
